--- a/Source.xlsx
+++ b/Source.xlsx
@@ -1,33 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C50125\Desktop\pdf_txt_git\pdf_extract\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9C5EAD-539A-4368-93B4-AA019CAF107D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>File_name</t>
+  </si>
+  <si>
+    <t>Sr.Number</t>
+  </si>
+  <si>
+    <t>Consignor_Name</t>
+  </si>
+  <si>
+    <t>Consignor_GST_Number</t>
+  </si>
+  <si>
+    <t>Consignor_State</t>
+  </si>
+  <si>
+    <t>Consigner_State_Code</t>
+  </si>
+  <si>
+    <t>Consignee_GST_Number</t>
+  </si>
+  <si>
+    <t>Consignee_Name</t>
+  </si>
+  <si>
+    <t>Consignee_State</t>
+  </si>
+  <si>
+    <t>Consignee_State_Code</t>
+  </si>
+  <si>
+    <t>PO_Number</t>
+  </si>
+  <si>
+    <t>Invoice_Number</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -45,84 +99,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -422,203 +418,168 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="9.33203125" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="14.5546875" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="14.5546875" customWidth="1" min="3" max="3"/>
-    <col width="11.77734375" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19.33203125" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="14" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="11.5546875" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="12.6640625" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="13.77734375" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="9.88671875" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="15" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="15.44140625" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="10.5546875" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="13.5546875" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="9.88671875" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="10.5546875" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="34.6640625" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="12" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>File_name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Title-Tax Invoice</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Reciepient GST</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Vendor GSTN</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Original for Recipient</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Invoice Number</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>HSN-Code</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>RCM-Yes/No</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vendor Name </t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Vendor Address</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>State</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>State Code</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Recipient Name</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Recipient Address</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>LTHE GSTIN</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Place Of Supply</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>State Code</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>State Name</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Unspecified GST Numbers</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>party1 details</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="28.8" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1.pdf</t>
-        </is>
-      </c>
-      <c r="S3" s="1" t="inlineStr">
-        <is>
-          <t>97AAACL0140P1ZC,
-27AAMCS2859Q1ZC</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>10.pdf</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>5.pdf</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>7.pdf</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>27AAFCK5236J2ZB</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>8.pdf</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>29AADCV3184A1ZF</t>
-        </is>
-      </c>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T17" s="1"/>
+    </row>
+    <row r="113" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T113" s="1"/>
+    </row>
+    <row r="116" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T116" s="1"/>
+    </row>
+    <row r="117" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T117" s="1"/>
+    </row>
+    <row r="118" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T118" s="1"/>
+    </row>
+    <row r="119" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T119" s="1"/>
+    </row>
+    <row r="121" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T121" s="1"/>
+    </row>
+    <row r="124" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T124" s="1"/>
+    </row>
+    <row r="125" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T125" s="1"/>
+    </row>
+    <row r="127" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T127" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Source.xlsx
+++ b/Source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deshm\PycharmProjects\pdf_extract_new_approach\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF842B6-8885-450E-BF2B-9E7C90010E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8774001-417A-451A-AEF7-8164D32E4F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="35">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -34,9 +34,18 @@
     <t>PO_Number</t>
   </si>
   <si>
+    <t>Consignee_GST_Number</t>
+  </si>
+  <si>
+    <t>Consignee_GST_VALIDATION_STATUS</t>
+  </si>
+  <si>
     <t>Consignor_GST_Number</t>
   </si>
   <si>
+    <t>Consignor_GST_VALIDATION_STATUS</t>
+  </si>
+  <si>
     <t>Consignor_Name</t>
   </si>
   <si>
@@ -49,9 +58,6 @@
     <t>Invoice_Number</t>
   </si>
   <si>
-    <t>Consignee_GST_Number</t>
-  </si>
-  <si>
     <t>Consignee_Name</t>
   </si>
   <si>
@@ -59,6 +65,66 @@
   </si>
   <si>
     <t>Consignee_State_Code</t>
+  </si>
+  <si>
+    <t>0.pdf</t>
+  </si>
+  <si>
+    <t>TAX INVOICE on page 1</t>
+  </si>
+  <si>
+    <t>GST Number Not Available</t>
+  </si>
+  <si>
+    <t>27AALFJ3318B1ZN</t>
+  </si>
+  <si>
+    <t>VALID</t>
+  </si>
+  <si>
+    <t>1.pdf</t>
+  </si>
+  <si>
+    <t>Not Available</t>
+  </si>
+  <si>
+    <t>97AAACL0140P1ZC</t>
+  </si>
+  <si>
+    <t>INVALID</t>
+  </si>
+  <si>
+    <t>27AAMCS2859Q1ZC</t>
+  </si>
+  <si>
+    <t>10.pdf</t>
+  </si>
+  <si>
+    <t>2.pdf</t>
+  </si>
+  <si>
+    <t>3.pdf</t>
+  </si>
+  <si>
+    <t>4.pdf</t>
+  </si>
+  <si>
+    <t>5.pdf</t>
+  </si>
+  <si>
+    <t>6.pdf</t>
+  </si>
+  <si>
+    <t>Tax Invoice on page 1</t>
+  </si>
+  <si>
+    <t>7.pdf</t>
+  </si>
+  <si>
+    <t>8.pdf</t>
+  </si>
+  <si>
+    <t>9.pdf</t>
   </si>
 </sst>
 </file>
@@ -422,38 +488,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T127"/>
+  <dimension ref="A1:U127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -491,51 +558,307 @@
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="T3" s="1"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="T14" s="1"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="T15" s="1"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="T16" s="1"/>
-    </row>
-    <row r="17" spans="20:20" x14ac:dyDescent="0.3">
-      <c r="T17" s="1"/>
-    </row>
-    <row r="113" spans="20:20" x14ac:dyDescent="0.3">
-      <c r="T113" s="1"/>
-    </row>
-    <row r="116" spans="20:20" x14ac:dyDescent="0.3">
-      <c r="T116" s="1"/>
-    </row>
-    <row r="117" spans="20:20" x14ac:dyDescent="0.3">
-      <c r="T117" s="1"/>
-    </row>
-    <row r="118" spans="20:20" x14ac:dyDescent="0.3">
-      <c r="T118" s="1"/>
-    </row>
-    <row r="119" spans="20:20" x14ac:dyDescent="0.3">
-      <c r="T119" s="1"/>
-    </row>
-    <row r="121" spans="20:20" x14ac:dyDescent="0.3">
-      <c r="T121" s="1"/>
-    </row>
-    <row r="124" spans="20:20" x14ac:dyDescent="0.3">
-      <c r="T124" s="1"/>
-    </row>
-    <row r="125" spans="20:20" x14ac:dyDescent="0.3">
-      <c r="T125" s="1"/>
-    </row>
-    <row r="127" spans="20:20" x14ac:dyDescent="0.3">
-      <c r="T127" s="1"/>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U17" s="1"/>
+    </row>
+    <row r="113" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U113" s="1"/>
+    </row>
+    <row r="116" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U116" s="1"/>
+    </row>
+    <row r="117" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U117" s="1"/>
+    </row>
+    <row r="118" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U118" s="1"/>
+    </row>
+    <row r="119" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U119" s="1"/>
+    </row>
+    <row r="121" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U121" s="1"/>
+    </row>
+    <row r="124" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U124" s="1"/>
+    </row>
+    <row r="125" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U125" s="1"/>
+    </row>
+    <row r="127" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U127" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
